--- a/10v15/12/Diamond-Cup/TEXAS_SHSU.xlsx
+++ b/10v15/12/Diamond-Cup/TEXAS_SHSU.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v15\12\Diamond-Cup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586A2CB7-83DF-41CE-8D08-160858589E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CEF99C-FCF8-4A5D-9172-681D946E5F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="ROSTER" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
   <si>
     <t>A</t>
   </si>
@@ -142,9 +141,6 @@
     <t>SAM REAGAN</t>
   </si>
   <si>
-    <t>BA24</t>
-  </si>
-  <si>
     <t>JOCELYN WHISTLER</t>
   </si>
   <si>
@@ -224,6 +220,117 @@
   </si>
   <si>
     <t>ANN SCHELIGA</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0136</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0241</t>
+  </si>
+  <si>
+    <t>R23,BA24</t>
+  </si>
+  <si>
+    <t>0257</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>0338</t>
+  </si>
+  <si>
+    <t>0416</t>
+  </si>
+  <si>
+    <t>0438</t>
+  </si>
+  <si>
+    <t>0510</t>
+  </si>
+  <si>
+    <t>0544</t>
+  </si>
+  <si>
+    <t>0621</t>
+  </si>
+  <si>
+    <t>0644</t>
+  </si>
+  <si>
+    <t>0730</t>
+  </si>
+  <si>
+    <t>0758</t>
+  </si>
+  <si>
+    <t>0830</t>
+  </si>
+  <si>
+    <t>0924</t>
+  </si>
+  <si>
+    <t>0942</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>1342</t>
+  </si>
+  <si>
+    <t>1353</t>
+  </si>
+  <si>
+    <t>1729</t>
+  </si>
+  <si>
+    <t>1645</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>1533</t>
+  </si>
+  <si>
+    <t>1442</t>
+  </si>
+  <si>
+    <t>1818</t>
+  </si>
+  <si>
+    <t>1843</t>
+  </si>
+  <si>
+    <t>1851</t>
   </si>
 </sst>
 </file>
@@ -511,7 +618,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -519,20 +634,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,8 +861,8 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -783,21 +890,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -810,40 +917,40 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="24" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="24">
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="20">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")</f>
         <v>11</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="25" t="str">
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="26" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCA"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="16" t="str">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="27" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>140*</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="18"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="22"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -853,25 +960,25 @@
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="21"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="25"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -881,38 +988,38 @@
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="24">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="20">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")</f>
         <v>8</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="25" t="str">
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="26" t="str">
         <f>IF(COUNTIF($A$7:$R$32,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$32,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$32,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="16" t="str">
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="27" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>80</v>
       </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="18"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="22"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -922,25 +1029,25 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="25"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -981,34 +1088,46 @@
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="9"/>
+      <c r="O7" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="P7" s="5" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="10"/>
+      <c r="R7" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -1107,32 +1226,44 @@
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="O10" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="10"/>
+      <c r="R10" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1237,34 +1368,46 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="10"/>
+      <c r="L13" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="M13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="9"/>
+      <c r="O13" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R13" s="10"/>
+      <c r="R13" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1291,7 +1434,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>8</v>
@@ -1321,7 +1464,7 @@
         <v>21</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -1365,32 +1508,44 @@
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="10"/>
+      <c r="L16" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="9"/>
+      <c r="O16" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R16" s="10"/>
+      <c r="R16" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -1428,7 +1583,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="L17" s="8">
         <v>2</v>
@@ -1447,7 +1602,7 @@
         <v>14</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1491,36 +1646,48 @@
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="M19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="9"/>
+      <c r="O19" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="P19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="10"/>
+      <c r="R19" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -1562,7 +1729,7 @@
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N20" s="12">
         <v>23</v>
@@ -1619,34 +1786,46 @@
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="J22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="9"/>
+      <c r="O22" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="10"/>
+      <c r="R22" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -1671,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>5</v>
@@ -29248,6 +29427,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:T5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29257,13 +29443,6 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:T5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29283,7 +29462,7 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
       <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
@@ -29331,7 +29510,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29378,7 +29557,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>33</v>
@@ -29402,7 +29581,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>23</v>
@@ -29413,7 +29592,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>24</v>
@@ -29424,10 +29603,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29440,7 +29619,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29475,7 +29654,7 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29491,7 +29670,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
@@ -29502,7 +29681,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29520,7 +29699,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29541,7 +29720,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29555,7 +29734,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29601,7 +29780,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29610,7 +29789,7 @@
       </c>
       <c r="B43" s="13"/>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29796,7 +29975,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29834,7 +30013,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29862,7 +30041,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29932,24 +30111,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>